--- a/data/测试用例完整版.xlsx
+++ b/data/测试用例完整版.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chu/Desktop/API/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chu/Desktop/Inter/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBBF39FE-373B-704E-9349-9ACFC9F9C4EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14C2DED4-C2B5-D848-80BC-4E9532DE4A2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="620" windowWidth="25600" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="91">
   <si>
     <t>编号</t>
   </si>
@@ -152,9 +152,6 @@
   </si>
   <si>
     <t>登录</t>
-  </si>
-  <si>
-    <t>获取验证码</t>
   </si>
   <si>
     <t>成功获取验证码</t>
@@ -320,6 +317,18 @@
   </si>
   <si>
     <t>{"password":"e10adc3949ba59abbe56e057f20f883e","username":"admin","uuid":"{{uuid}}","code":"2"}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取uuid</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>code,msg</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>200,"操作成功"</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -475,6 +484,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -489,18 +510,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -771,9 +780,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J4" sqref="J4"/>
+      <selection pane="bottomLeft" activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
@@ -923,25 +932,25 @@
         <v>38</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="F3" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M3" s="1">
         <v>200</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="S3" s="2" t="b">
         <v>1</v>
@@ -958,28 +967,28 @@
         <v>38</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="F4" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L4" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="P4" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="M4" s="1">
-        <v>200</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="S4" s="2" t="b">
         <v>1</v>
@@ -990,28 +999,28 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F5" s="3" t="s">
+      <c r="G5" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="L5" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="M5" s="1">
         <v>200</v>
@@ -1025,37 +1034,37 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="G6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="L6" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="M6" s="1">
         <v>200</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="S6" s="2" t="b">
         <v>0</v>
@@ -1066,37 +1075,37 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="D7" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="L7" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="M7" s="1">
         <v>200</v>
       </c>
       <c r="N7" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="O7" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="S7" s="2" t="b">
         <v>0</v>
@@ -1107,34 +1116,34 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="D8" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="G8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="L8" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M8" s="1">
         <v>200</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="S8" s="2" t="b">
         <v>0</v>
@@ -1145,28 +1154,28 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="D9" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>67</v>
-      </c>
       <c r="L9" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M9" s="1">
         <v>200</v>
@@ -1197,163 +1206,168 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="34" customHeight="1">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="6" t="s">
+      <c r="B2" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="10"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="6"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="7" t="s">
+      <c r="B4" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="11"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="7"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="12"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="8"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="9" t="s">
+      <c r="B8" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="13"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+    </row>
+    <row r="10" spans="1:8" ht="56" customHeight="1">
+      <c r="A10" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="9"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-    </row>
-    <row r="10" spans="1:8" ht="56" customHeight="1">
-      <c r="A10" s="10" t="s">
+      <c r="B10" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="5"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+    </row>
+    <row r="12" spans="1:8" ht="48" customHeight="1">
+      <c r="A12" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="10"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-    </row>
-    <row r="12" spans="1:8" ht="48" customHeight="1">
-      <c r="A12" s="11" t="s">
+      <c r="B12" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="B12" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
     </row>
     <row r="13" spans="1:8" ht="36" customHeight="1">
-      <c r="A13" s="11"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
+      <c r="A13" s="6"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="B2:H3"/>
@@ -1362,11 +1376,6 @@
     <mergeCell ref="B10:H11"/>
     <mergeCell ref="B4:H5"/>
     <mergeCell ref="B12:H13"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/测试用例完整版.xlsx
+++ b/data/测试用例完整版.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chu/Desktop/Inter/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14C2DED4-C2B5-D848-80BC-4E9532DE4A2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E63BF84B-F942-4A4C-BA32-52D512C70BCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="620" windowWidth="25600" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="90">
   <si>
     <t>编号</t>
   </si>
@@ -188,9 +188,6 @@
   </si>
   <si>
     <t>{"pageIndex":1,"pageSize":20,"available":"true"}</t>
-  </si>
-  <si>
-    <t>{"status_code":200,"code":200,"time":100,"str":("北梦测","success"),"type":({"check_name":"available","check_type":bool,"index":"all"},{"check_name":"pageSize","check_type":int,"index":0})}</t>
   </si>
   <si>
     <t>基础信息管理</t>
@@ -324,11 +321,11 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>code,msg</t>
+    <t>{"status_code":200,"code":200,"time":100,"str":("北","success"),"type":({"check_name":"available","check_type":bool,"index":"all"},{"check_name":"pageSize","check_type":int,"index":0})}</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>200,"操作成功"</t>
+    <t>{'msg': '操作成功', 'code': 200}</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -782,7 +779,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M4" sqref="M4"/>
+      <selection pane="bottomLeft" activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
@@ -932,7 +929,7 @@
         <v>38</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>39</v>
@@ -941,16 +938,16 @@
         <v>40</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M3" s="1">
         <v>200</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S3" s="2" t="b">
         <v>1</v>
@@ -973,19 +970,19 @@
         <v>42</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="M4" s="1" t="s">
-        <v>90</v>
+      <c r="M4" s="1">
+        <v>200</v>
       </c>
       <c r="P4" s="1" t="s">
         <v>44</v>
@@ -1020,7 +1017,7 @@
         <v>50</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>51</v>
+        <v>88</v>
       </c>
       <c r="M5" s="1">
         <v>200</v>
@@ -1034,25 +1031,25 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>42</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>49</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>43</v>
@@ -1061,10 +1058,10 @@
         <v>200</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="S6" s="2" t="b">
         <v>0</v>
@@ -1075,25 +1072,25 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="D7" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>42</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>49</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L7" s="1" t="s">
         <v>43</v>
@@ -1102,10 +1099,10 @@
         <v>200</v>
       </c>
       <c r="N7" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="O7" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="S7" s="2" t="b">
         <v>0</v>
@@ -1116,19 +1113,19 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="D8" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>40</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>49</v>
@@ -1143,7 +1140,7 @@
         <v>200</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="S8" s="2" t="b">
         <v>0</v>
@@ -1154,25 +1151,25 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="D9" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>40</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>49</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L9" s="1" t="s">
         <v>43</v>
@@ -1207,7 +1204,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="34" customHeight="1">
       <c r="A1" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
@@ -1219,10 +1216,10 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>69</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
@@ -1243,10 +1240,10 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
@@ -1267,10 +1264,10 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
@@ -1291,10 +1288,10 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
@@ -1315,10 +1312,10 @@
     </row>
     <row r="10" spans="1:8" ht="56" customHeight="1">
       <c r="A10" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B10" s="8" t="s">
         <v>76</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>77</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
@@ -1339,10 +1336,10 @@
     </row>
     <row r="12" spans="1:8" ht="48" customHeight="1">
       <c r="A12" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B12" s="8" t="s">
         <v>78</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>79</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>

--- a/data/测试用例完整版.xlsx
+++ b/data/测试用例完整版.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chu/Desktop/Inter/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E63BF84B-F942-4A4C-BA32-52D512C70BCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C773845-8F99-154C-A851-B835E2CD6C8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="620" windowWidth="25600" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="93">
   <si>
     <t>编号</t>
   </si>
@@ -154,9 +154,6 @@
     <t>登录</t>
   </si>
   <si>
-    <t>成功获取验证码</t>
-  </si>
-  <si>
     <t>get</t>
   </si>
   <si>
@@ -202,18 +199,12 @@
     <t>/api/basedata/storecenter</t>
   </si>
   <si>
-    <t>{"code":"bm_ck_04","name":"北梦测试仓库4"}</t>
-  </si>
-  <si>
     <t>("bm_ck_04","系统管理员")</t>
   </si>
   <si>
     <t>新增仓库2</t>
   </si>
   <si>
-    <t>{"code":"bm_ck_05","name":"北梦测试仓库5"}</t>
-  </si>
-  <si>
     <t>select code,name from base_data_store_center where code = "bm_ck_05"</t>
   </si>
   <si>
@@ -257,9 +248,6 @@
   </si>
   <si>
     <t>字符串</t>
-  </si>
-  <si>
-    <t>{"status_code":200,"code":200,"time":100,"str":("北梦测","success")}</t>
   </si>
   <si>
     <t>类型</t>
@@ -277,55 +265,83 @@
     <t>综合</t>
   </si>
   <si>
+    <t>code</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>/captchaImage</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"content-type":"application/json;charset=UTF-8"}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"uuid":"uuid"}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>/login</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>('select code,name from base_data_store_center where code = "bm_ck_04"',"""select * from op_logs where extra = '{"code":"bm_ck_04","name":""}'""")</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>仓库信息</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"password":"e10adc3949ba59abbe56e057f20f883e","username":"admin","uuid":"{{uuid}}","code":"2"}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取uuid</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'str': ("成功",), 'code': 200}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"sn":"sn","image":"image"}</t>
+  </si>
+  <si>
+    <t>{"user_id":"SELECT id FROM user LIMIT 1","order_count":"SELECT count(*) FROM orders"}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"user_id":"SELECT id FROM user LIMIT 1"}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"status_code":200,"code":200,"time":100,"str":("成","success"),"type":({"check_name":"available","check_type":bool,"index":"all"},{"check_name":"pageSize","check_type":int,"index":0})}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>{"status_code":200,
 "code":200,
 "time":100,
-"str":("北梦测","success"),
+"str":("成功","success"),
 "type":({"check_name":"available","check_type":bool,"index":"all"},
 {"check_name":"pageSize","check_type":int,"index":0})}</t>
-  </si>
-  <si>
-    <t>code</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>/captchaImage</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"content-type":"application/json;charset=UTF-8"}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"uuid":"uuid"}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>/login</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>('select code,name from base_data_store_center where code = "bm_ck_04"',"""select * from op_logs where extra = '{"code":"bm_ck_04","name":""}'""")</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>仓库信息</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"password":"e10adc3949ba59abbe56e057f20f883e","username":"admin","uuid":"{{uuid}}","code":"2"}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取uuid</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"status_code":200,"code":200,"time":100,"str":("北","success"),"type":({"check_name":"available","check_type":bool,"index":"all"},{"check_name":"pageSize","check_type":int,"index":0})}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>{'msg': '操作成功', 'code': 200}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"status_code":200,"code":200,"time":100,"str":("成功","success")}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功获取uuid</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"code":"bm_ck_04","name":"仓库4"}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"code":"bm_ck_05","name":"仓库5"}</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -333,7 +349,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -374,6 +390,14 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -465,7 +489,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -481,6 +505,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -490,23 +529,14 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -777,9 +807,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L4" sqref="L4"/>
+      <selection pane="bottomLeft" activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
@@ -794,8 +824,9 @@
     <col min="8" max="8" width="19.5" style="2" customWidth="1"/>
     <col min="9" max="9" width="27" style="2" customWidth="1"/>
     <col min="10" max="10" width="9" style="2"/>
-    <col min="11" max="11" width="31.6640625" style="2" customWidth="1"/>
-    <col min="12" max="13" width="9" style="2"/>
+    <col min="11" max="11" width="25.6640625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="43.5" style="2" customWidth="1"/>
+    <col min="13" max="13" width="9" style="2"/>
     <col min="14" max="14" width="29" style="2" customWidth="1"/>
     <col min="15" max="15" width="15.6640625" style="2" customWidth="1"/>
     <col min="16" max="16" width="27.33203125" style="2" customWidth="1"/>
@@ -929,31 +960,31 @@
         <v>38</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="F3" s="1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="M3" s="1">
         <v>200</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="S3" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:19" s="1" customFormat="1" ht="16" customHeight="1">
+    <row r="4" spans="1:19" s="1" customFormat="1" ht="69" customHeight="1">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -964,104 +995,110 @@
         <v>38</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="F4" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="L4" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="M4" s="1">
-        <v>200</v>
-      </c>
       <c r="P4" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="S4" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:19" s="1" customFormat="1" ht="16" customHeight="1">
+    <row r="5" spans="1:19" s="1" customFormat="1" ht="73" customHeight="1">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F5" s="3" t="s">
+      <c r="G5" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="L5" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M5" s="1">
         <v>200</v>
       </c>
+      <c r="P5" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>86</v>
+      </c>
       <c r="S5" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" s="1" customFormat="1" ht="42" customHeight="1">
+    <row r="6" spans="1:19" s="1" customFormat="1" ht="78" customHeight="1">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="G6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="L6" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="M6" s="1">
         <v>200</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="S6" s="2" t="b">
         <v>0</v>
@@ -1072,37 +1109,37 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="D7" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="L7" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="M7" s="1">
         <v>200</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="S7" s="2" t="b">
         <v>0</v>
@@ -1113,34 +1150,34 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="D8" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="L8" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M8" s="1">
         <v>200</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="S8" s="2" t="b">
         <v>0</v>
@@ -1151,28 +1188,28 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="D9" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M9" s="1">
         <v>200</v>
@@ -1192,8 +1229,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView topLeftCell="A2" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12:H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -1203,168 +1240,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="34" customHeight="1">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="6"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="10" t="s">
+      <c r="B4" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="7"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="10"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="11" t="s">
+      <c r="B6" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="8"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="11"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="12" t="s">
+      <c r="B8" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="9"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+    </row>
+    <row r="10" spans="1:8" ht="56" customHeight="1">
+      <c r="A10" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B10" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="12"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="13" t="s">
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="10"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+    </row>
+    <row r="12" spans="1:8" ht="48" customHeight="1">
+      <c r="A12" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="13"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-    </row>
-    <row r="10" spans="1:8" ht="56" customHeight="1">
-      <c r="A10" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="5"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-    </row>
-    <row r="12" spans="1:8" ht="48" customHeight="1">
-      <c r="A12" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
+      <c r="B12" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
     </row>
     <row r="13" spans="1:8" ht="36" customHeight="1">
-      <c r="A13" s="6"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
+      <c r="A13" s="11"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="B2:H3"/>
@@ -1373,6 +1405,11 @@
     <mergeCell ref="B10:H11"/>
     <mergeCell ref="B4:H5"/>
     <mergeCell ref="B12:H13"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
